--- a/timetable Hindi.xlsx
+++ b/timetable Hindi.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="alright now  give me import exc" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="sheet" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -427,7 +427,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -438,7 +438,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
